--- a/src/test/resources/Test Data/MainSpringMasterDataSheet.xlsx
+++ b/src/test/resources/Test Data/MainSpringMasterDataSheet.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="771"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="704" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Release" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint" sheetId="2" r:id="rId2"/>
-    <sheet name="User Stories" sheetId="3" r:id="rId3"/>
+    <sheet name="User Story Digital" sheetId="3" r:id="rId3"/>
+    <sheet name="User Story Investment" sheetId="4" r:id="rId4"/>
+    <sheet name="User Story Marketing" sheetId="5" r:id="rId5"/>
+    <sheet name="User Story Distribution" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -48,18 +51,6 @@
   </si>
   <si>
     <t>Responsibility</t>
-  </si>
-  <si>
-    <t>Release 4_Oct11_to_12</t>
-  </si>
-  <si>
-    <t>Major</t>
-  </si>
-  <si>
-    <t>web based/Client Server/Desktop</t>
-  </si>
-  <si>
-    <t>High</t>
   </si>
   <si>
     <t>Saugata Kumar</t>
@@ -205,25 +196,43 @@
     <t>Debasree Sen</t>
   </si>
   <si>
-    <t>User Story Investment</t>
-  </si>
-  <si>
-    <t>User Story Digital</t>
-  </si>
-  <si>
-    <t>User Story Marketing</t>
-  </si>
-  <si>
-    <t>User Story Distribution</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
+    <t>Release 4_Oct11_to_12</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
     <t>10/1/2018</t>
   </si>
   <si>
     <t>10/12/2018</t>
+  </si>
+  <si>
+    <t>web based/Client Server/Desktop</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>10/3/2018</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>300</t>
   </si>
 </sst>
 </file>
@@ -260,7 +269,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,12 +285,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,19 +316,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -334,6 +327,8 @@
     <xf numFmtId="15" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,111 +609,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="2" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -731,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +707,7 @@
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
@@ -751,7 +716,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -760,7 +725,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -769,10 +734,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -781,36 +746,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="3">
-        <v>43376</v>
-      </c>
-      <c r="F2" s="2">
-        <v>43385</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>13</v>
+      <c r="J2" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -820,10 +785,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,451 +811,527 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>54</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="1" t="s">
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="I2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="K2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="2">
-        <v>43385</v>
-      </c>
-      <c r="M3" s="2">
-        <v>300</v>
-      </c>
-      <c r="N3" s="4">
-        <v>300</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="3">
-        <v>43385</v>
-      </c>
-      <c r="M6" s="2">
-        <v>700</v>
-      </c>
-      <c r="N6" s="4">
-        <v>700</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="3">
-        <v>43385</v>
-      </c>
-      <c r="M9" s="2">
-        <v>540</v>
-      </c>
-      <c r="N9" s="4">
-        <v>540</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="3">
-        <v>43385</v>
-      </c>
-      <c r="M12" s="2">
-        <v>480</v>
-      </c>
-      <c r="N12" s="4">
-        <v>480</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
+      <c r="P2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/Test Data/MainSpringMasterDataSheet.xlsx
+++ b/src/test/resources/Test Data/MainSpringMasterDataSheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="704" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" tabRatio="851" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Release" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -68,13 +68,7 @@
     <t>Sprint Duration</t>
   </si>
   <si>
-    <t>SPR5</t>
-  </si>
-  <si>
     <t>12th Oct Sprint</t>
-  </si>
-  <si>
-    <t>12th Oct Release</t>
   </si>
   <si>
     <r>
@@ -89,9 +83,6 @@
       </rPr>
       <t> </t>
     </r>
-  </si>
-  <si>
-    <t>Release4_Oct11_to_Oct12</t>
   </si>
   <si>
     <t>User Defined</t>
@@ -199,27 +190,15 @@
     <t/>
   </si>
   <si>
-    <t>Release 4_Oct11_to_12</t>
-  </si>
-  <si>
     <t>Major</t>
   </si>
   <si>
-    <t>10/1/2018</t>
-  </si>
-  <si>
     <t>10/12/2018</t>
   </si>
   <si>
-    <t>web based/Client Server/Desktop</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
-    <t>10/3/2018</t>
-  </si>
-  <si>
     <t>540</t>
   </si>
   <si>
@@ -233,12 +212,39 @@
   </si>
   <si>
     <t>300</t>
+  </si>
+  <si>
+    <t>Release 5_Dec3_to_5</t>
+  </si>
+  <si>
+    <t>SPR6</t>
+  </si>
+  <si>
+    <t>7th Dec Sprint</t>
+  </si>
+  <si>
+    <t>03-Dec-2018</t>
+  </si>
+  <si>
+    <t>07-Dec-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Web based/Client server/Desktop </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Functional Testing - Manual </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Release 5_Dec3_to_5 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -316,10 +322,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -329,6 +334,13 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,77 +624,77 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="2" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -696,90 +708,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -787,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,102 +829,102 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="I2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>58</v>
+      <c r="Q2" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -957,102 +968,102 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="I2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>58</v>
+      <c r="Q2" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1095,102 +1106,102 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="I2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>58</v>
+      <c r="Q2" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1233,102 +1244,102 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="M2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>58</v>
+      <c r="Q2" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Test Data/MainSpringMasterDataSheet.xlsx
+++ b/src/test/resources/Test Data/MainSpringMasterDataSheet.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" tabRatio="851" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" tabRatio="811" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Release" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint" sheetId="2" r:id="rId2"/>
-    <sheet name="User Story Digital" sheetId="3" r:id="rId3"/>
-    <sheet name="User Story Investment" sheetId="4" r:id="rId4"/>
-    <sheet name="User Story Marketing" sheetId="5" r:id="rId5"/>
-    <sheet name="User Story Distribution" sheetId="6" r:id="rId6"/>
+    <sheet name="User Story" sheetId="3" r:id="rId3"/>
+    <sheet name="Task-Distribution" sheetId="7" r:id="rId4"/>
+    <sheet name="Task-Marketing" sheetId="8" r:id="rId5"/>
+    <sheet name="Task-Investment" sheetId="9" r:id="rId6"/>
+    <sheet name="Task-Digital" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="99">
   <si>
     <t>Name</t>
   </si>
@@ -66,9 +67,6 @@
   </si>
   <si>
     <t>Sprint Duration</t>
-  </si>
-  <si>
-    <t>12th Oct Sprint</t>
   </si>
   <si>
     <r>
@@ -97,9 +95,6 @@
     <t>User Story Type</t>
   </si>
   <si>
-    <t xml:space="preserve">State </t>
-  </si>
-  <si>
     <t>Due Date</t>
   </si>
   <si>
@@ -130,60 +125,18 @@
     <t>Rank</t>
   </si>
   <si>
-    <t>12th Oct Release - Digital</t>
-  </si>
-  <si>
     <t>Shawon Mondal</t>
   </si>
   <si>
-    <r>
-      <t>Functional Testing - Manual</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF656464"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>Planned</t>
-  </si>
-  <si>
-    <t>12th Oct</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t>Release 4_Oct11_to_Oct12</t>
-  </si>
-  <si>
-    <t>All Team Member</t>
-  </si>
-  <si>
-    <t>12th Oct Release - Investment</t>
-  </si>
-  <si>
     <t>Amritesh Khan</t>
   </si>
   <si>
-    <t>12th Oct Release - Marketing</t>
-  </si>
-  <si>
     <t>Gour Karmakar</t>
   </si>
   <si>
-    <t>12th Oct Release - Distribution</t>
-  </si>
-  <si>
     <t>Debasree Sen</t>
   </si>
   <si>
@@ -193,9 +146,6 @@
     <t>Major</t>
   </si>
   <si>
-    <t>10/12/2018</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -236,6 +186,153 @@
   </si>
   <si>
     <t xml:space="preserve"> Release 5_Dec3_to_5 </t>
+  </si>
+  <si>
+    <t>7th Dec Release - Digital</t>
+  </si>
+  <si>
+    <t>7th Dec Release - Investment</t>
+  </si>
+  <si>
+    <t>7th Dec Release - Marketing</t>
+  </si>
+  <si>
+    <t>7th Dec Release - Distribution</t>
+  </si>
+  <si>
+    <t>Shawon Mondal (140306)</t>
+  </si>
+  <si>
+    <t>Amritesh Khan (149306)</t>
+  </si>
+  <si>
+    <t>Gour Karmakar (169590)</t>
+  </si>
+  <si>
+    <t>Debasree Sen (550371)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Planned </t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Medium </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All Team Member </t>
+  </si>
+  <si>
+    <t>Current State</t>
+  </si>
+  <si>
+    <t>Standard Code</t>
+  </si>
+  <si>
+    <t>To-Do Owner</t>
+  </si>
+  <si>
+    <t>Estimated Effort</t>
+  </si>
+  <si>
+    <t>Actual Effort</t>
+  </si>
+  <si>
+    <t>Remaining Effort</t>
+  </si>
+  <si>
+    <t>Time Tracking</t>
+  </si>
+  <si>
+    <t>Develop Test Scenario</t>
+  </si>
+  <si>
+    <t>Test Scenario</t>
+  </si>
+  <si>
+    <t>Develop Test data for test execution</t>
+  </si>
+  <si>
+    <t>Test Data Setup</t>
+  </si>
+  <si>
+    <t>Perform Test Execution</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Agnibha Malakar</t>
+  </si>
+  <si>
+    <t>Ceenali Mohanty</t>
+  </si>
+  <si>
+    <t>Subhadeep Chatterjee</t>
+  </si>
+  <si>
+    <t>Sananda Jana</t>
+  </si>
+  <si>
+    <t>Sandip Basak</t>
+  </si>
+  <si>
+    <t>Darpan Chatterjee</t>
+  </si>
+  <si>
+    <t>Debanjan Basu</t>
+  </si>
+  <si>
+    <t>Deep Bhowmick</t>
+  </si>
+  <si>
+    <t>Sony Goswami</t>
+  </si>
+  <si>
+    <t>Subhajit Saha</t>
+  </si>
+  <si>
+    <t>Prachetosh Ghosh</t>
+  </si>
+  <si>
+    <t>Samarjit Dey</t>
+  </si>
+  <si>
+    <t>Rituraj Purkayastha</t>
+  </si>
+  <si>
+    <t>Sreemoyee Roy</t>
+  </si>
+  <si>
+    <t>Himadri Dey</t>
+  </si>
+  <si>
+    <t>Ankita Chatterjee</t>
+  </si>
+  <si>
+    <t>Swarup Roy</t>
+  </si>
+  <si>
+    <t>Anusree Barat</t>
+  </si>
+  <si>
+    <t>Dipanita Maity</t>
+  </si>
+  <si>
+    <t>Esha Sen</t>
+  </si>
+  <si>
+    <t>User Story Name</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Shaik Vajid Basha</t>
   </si>
 </sst>
 </file>
@@ -245,7 +342,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,13 +359,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF656464"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF656464"/>
       <name val="Arial"/>
@@ -322,9 +412,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -339,6 +428,15 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -624,77 +722,77 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="2" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -725,66 +823,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="6" t="s">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -796,135 +894,295 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="O3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="Q3" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="E4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>51</v>
+      <c r="D5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -935,274 +1193,1081 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="F2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F14" sqref="F14:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="C1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1211,136 +2276,1161 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F20" sqref="F20:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="C1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="F2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
